--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1208538.99354403</v>
+        <v>-1210879.966703201</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.1349173424072</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>66.99070336972517</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>80.9734750049406</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>213.4328273407262</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>174.9723186877832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>68.2276977578159</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>37.40475229733314</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>352.4710201949704</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>354.0949417452707</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.35503333538772</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>49.39274534364674</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.27437675004175</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>139.4320192882157</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,7 +1585,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520921</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>150.1723483542533</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>209.5388217191286</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.2319874488153</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>97.94605732675211</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>45.41799742323408</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>63.37319898349323</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.90342393179358</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2494,7 +2494,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>61.08677595057956</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6507579967653</v>
+        <v>252.0710257365563</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,16 +3004,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>283.8758740715552</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>11.94424739012672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572902</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404364</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,16 +4141,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124554</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.370926719885</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="C2" t="n">
-        <v>958.408409779473</v>
+        <v>121.610358961501</v>
       </c>
       <c r="D2" t="n">
-        <v>600.1427111727226</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>214.3544585744783</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1348.719328075852</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1014.690224371757</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1014.690224371757</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.378525311161</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.378525311161</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.378525311161</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>508.6979412980804</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C7" t="n">
-        <v>508.6979412980804</v>
+        <v>122.8598482424007</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>690.3464061283202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>690.3464061283202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3464061283202</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>690.3464061283202</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>690.3464061283202</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>690.3464061283202</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1155.132843416448</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1777.208368190759</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.069036214947</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103787</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="C10" t="n">
-        <v>398.3338608103787</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="D10" t="n">
-        <v>398.3338608103787</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="E10" t="n">
-        <v>398.3338608103787</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="F10" t="n">
-        <v>251.4439133124684</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>149.4911682165097</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>149.4911682165097</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406185</v>
+        <v>500.139433308417</v>
       </c>
     </row>
     <row r="11">
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1687.484443350884</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.1104853224374</v>
+        <v>550.3214813792679</v>
       </c>
       <c r="C13" t="n">
-        <v>636.1104853224374</v>
+        <v>550.3214813792679</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459101016</v>
+        <v>550.3214813792679</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>550.3214813792679</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.957642384229</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X13" t="n">
-        <v>935.9680914862117</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.1755123426816</v>
+        <v>550.3214813792679</v>
       </c>
     </row>
     <row r="14">
@@ -5276,34 +5276,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>913.1101661838561</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1364.144379432265</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>1897.67628410419</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.8526275526848</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="C16" t="n">
-        <v>490.9164446247779</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D16" t="n">
-        <v>340.7998052124422</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F16" t="n">
         <v>192.8867116300491</v>
@@ -5446,40 +5446,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862235</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1714.823768100362</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1493.057152669889</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1203.954285795532</v>
+        <v>1522.921475200362</v>
       </c>
       <c r="V16" t="n">
-        <v>949.2697975896453</v>
+        <v>1268.236986994476</v>
       </c>
       <c r="W16" t="n">
-        <v>659.8526275526848</v>
+        <v>1268.236986994476</v>
       </c>
       <c r="X16" t="n">
-        <v>659.8526275526848</v>
+        <v>1040.247436096458</v>
       </c>
       <c r="Y16" t="n">
-        <v>659.8526275526848</v>
+        <v>819.454856952928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,22 +5516,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.336921276364</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
         <v>409.4810578558177</v>
@@ -5701,22 +5701,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1829.846509085698</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1540.743642211342</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.743642211342</v>
+        <v>1568.305187789184</v>
       </c>
       <c r="W19" t="n">
-        <v>1251.326472174381</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="X19" t="n">
-        <v>1023.336921276364</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y19" t="n">
-        <v>1023.336921276364</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,67 +5735,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195856</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3195.001976422503</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>485.9938459101016</v>
+        <v>755.2936629429144</v>
       </c>
       <c r="C22" t="n">
-        <v>485.9938459101016</v>
+        <v>586.3574800150075</v>
       </c>
       <c r="D22" t="n">
-        <v>485.9938459101016</v>
+        <v>436.2408406026717</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>288.3277470202786</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>141.4377995223682</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1478.877634194497</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>1224.19314598861</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W22" t="n">
-        <v>934.7759759516491</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="X22" t="n">
-        <v>706.7864250536318</v>
+        <v>1157.734706916684</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.9938459101016</v>
+        <v>936.9421277731541</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,31 +5987,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522032</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,28 +6066,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7264155301116</v>
+        <v>788.0341484576122</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>619.0979655297053</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>619.0979655297053</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>471.1848719473122</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>471.1848719473122</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>303.4820353220312</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>157.2648485398889</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W25" t="n">
-        <v>999.1036114208122</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X25" t="n">
-        <v>999.1036114208122</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="Y25" t="n">
-        <v>999.1036114208122</v>
+        <v>969.682613287852</v>
       </c>
     </row>
     <row r="26">
@@ -6230,19 +6230,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188665</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6306,37 +6306,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>343.0033510423848</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="C28" t="n">
-        <v>343.0033510423848</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1517.53560415702</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V28" t="n">
-        <v>1262.851115951133</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W28" t="n">
-        <v>973.433945914172</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X28" t="n">
-        <v>745.4443950161547</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y28" t="n">
-        <v>524.6518158726245</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>676.4156786811474</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W31" t="n">
-        <v>897.2082578246775</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X31" t="n">
-        <v>897.2082578246775</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.4156786811474</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1040.987899283235</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1905.50671493659</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.038619608515</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667297</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6774,22 +6774,22 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416725</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819757</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,7 +6892,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849073</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036725</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3484.372139114998</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3987.344609994335</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430902</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,13 +7114,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7129,7 +7129,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W37" t="n">
         <v>1276.596863849073</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1352.099436442225</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
@@ -7251,19 +7251,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7284,10 +7284,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
         <v>1554.419908487875</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,46 +7409,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>318.2383484401506</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>972.9616805754501</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1837.480496228805</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2816.030799058633</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>3362.809616117416</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499225</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216428</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M44" t="n">
-        <v>2949.638265046256</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N44" t="n">
-        <v>3496.417082105039</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>3999.389552984377</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,22 +7728,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430899</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,19 +7807,19 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
         <v>2204.270866719035</v>
@@ -7840,7 +7840,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
         <v>1276.596863849073</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036724</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>85.51392558917598</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>297.8289162490806</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>23.80814351663628</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>82.70159106555775</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>103.7862464855158</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>126.3855966773247</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>315.1679217109319</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.64153443578698</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,25 +10115,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>126.3855966773232</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>257.9017284501171</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P35" t="n">
-        <v>89.5245633896194</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>285.6623071682326</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>34.13957882094016</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>77.3579543087684</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.5989243210734</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>287.6923382509578</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>42.33972492769118</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>90.94549200389761</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>199.2221400512518</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.5576034318955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5.989028734715532</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.019285162638847e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>39.59667697718859</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>76.6730164864843</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>94.31696182735394</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>154.1915859970759</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>120.6078108357941</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>222.8386392221196</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.9285562501437</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>35.26564445925853</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>41.56108020884753</v>
+        <v>34.14081246905656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.33596413405769</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>274.5787509464643</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>153577.948997913</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728566</v>
@@ -26323,10 +26323,10 @@
         <v>158832.7147547933</v>
       </c>
       <c r="F2" t="n">
-        <v>158832.7147547933</v>
+        <v>158832.7147547932</v>
       </c>
       <c r="G2" t="n">
-        <v>158832.7147547933</v>
+        <v>158832.7147547932</v>
       </c>
       <c r="H2" t="n">
         <v>158832.7147547932</v>
@@ -26341,13 +26341,13 @@
         <v>158832.7147547932</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728566</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="N2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728568</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153011.2610588577</v>
+        <v>153011.2610588576</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
+        <v>33605.65329740902</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>33605.65329740899</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740894</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33605.65329740896</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-672260.2693388985</v>
+        <v>-672393.1494010852</v>
       </c>
       <c r="C6" t="n">
-        <v>-101999.4109476809</v>
+        <v>-101999.4109476808</v>
       </c>
       <c r="D6" t="n">
         <v>-101999.4109476808</v>
       </c>
       <c r="E6" t="n">
-        <v>-683076.7098115168</v>
+        <v>-683143.9053017426</v>
       </c>
       <c r="F6" t="n">
-        <v>44300.70418188973</v>
+        <v>44233.50869166379</v>
       </c>
       <c r="G6" t="n">
-        <v>44300.70418188967</v>
+        <v>44233.50869166382</v>
       </c>
       <c r="H6" t="n">
-        <v>44300.70418188963</v>
+        <v>44233.50869166388</v>
       </c>
       <c r="I6" t="n">
-        <v>44300.7041818896</v>
+        <v>44233.50869166379</v>
       </c>
       <c r="J6" t="n">
-        <v>-132122.5150107033</v>
+        <v>-132189.7105009291</v>
       </c>
       <c r="K6" t="n">
-        <v>44300.7041818896</v>
+        <v>44233.50869166383</v>
       </c>
       <c r="L6" t="n">
-        <v>-7310.079633528585</v>
+        <v>-7310.079633528454</v>
       </c>
       <c r="M6" t="n">
-        <v>-99372.28517759917</v>
+        <v>-99372.28517759891</v>
       </c>
       <c r="N6" t="n">
-        <v>30270.0296613456</v>
+        <v>30270.02966134553</v>
       </c>
       <c r="O6" t="n">
-        <v>30270.02966134573</v>
+        <v>30270.02966134569</v>
       </c>
       <c r="P6" t="n">
-        <v>30270.02966134567</v>
+        <v>30270.02966134563</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26768,16 +26768,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>364.5363208140203</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>98.8585051769967</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>52.91550327257616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>193.4432184009852</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>174.2686500296298</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,28 +27774,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>80.38777526039645</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>187.6303531607511</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>54.405025546741</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.63615893319832</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>127.9547689236632</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>85.57287644869149</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.358561997638116e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28308,13 +28308,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.358561997638116e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002915</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>624.4350414194028</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>635.0202028044811</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>562.729259346863</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675428</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>635.0034264784692</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>611.8392473737348</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>581.9757110696567</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>867.4697571238434</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>519.6945353240061</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>581.9757110696554</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>595.0930150055176</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P35" t="n">
-        <v>488.2865496089913</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37464,7 +37464,7 @@
         <v>92.5535532316588</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37473,10 +37473,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>741.2524215605648</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224.9265797896527</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>476.1199405281405</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859612</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
